--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2232904.508903207</v>
+        <v>2231016.927386805</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>207.179193920011</v>
       </c>
       <c r="C2" t="n">
-        <v>237.4552014283703</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>15.67129869336543</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>83.48795352011295</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>43.3772167958215</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>319.3018495141348</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>160.3751909263516</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>139.6528551206848</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>224.8952567231525</v>
+        <v>200.5701849660524</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>166.4762883860747</v>
+        <v>76.56542964295343</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>31.42218700820999</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>69.71541319378788</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>45.44210896004785</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.77945773664992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.908038455239335</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>58.42670163898618</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>39.72583251028869</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857231</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497228</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>69.77257646012751</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.10866026757</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="C5" t="n">
-        <v>984.1461433271581</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="D5" t="n">
-        <v>625.8804447204077</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="E5" t="n">
-        <v>625.8804447204077</v>
+        <v>676.1336371771213</v>
       </c>
       <c r="F5" t="n">
-        <v>618.9349439712042</v>
+        <v>265.1477323875137</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>251.2243283261046</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362306</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>529.9360785466231</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2105.214675620634</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,31 +5215,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>761.5395953944299</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W13" t="n">
-        <v>727.6476863320731</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340558</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
         <v>278.8655562905255</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,64 +5264,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641087</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1598612984388</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1330.758403501262</v>
+        <v>1421.577452736737</v>
       </c>
       <c r="T16" t="n">
-        <v>1106.972988290767</v>
+        <v>1421.577452736737</v>
       </c>
       <c r="U16" t="n">
-        <v>817.8443495043257</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V16" t="n">
-        <v>563.1598612984388</v>
+        <v>877.7643257444087</v>
       </c>
       <c r="W16" t="n">
-        <v>563.1598612984388</v>
+        <v>877.7643257444087</v>
       </c>
       <c r="X16" t="n">
-        <v>563.1598612984388</v>
+        <v>649.7747748463913</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.1598612984388</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,16 +5510,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,16 +5528,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365137</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216475</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.5552164996852</v>
+        <v>128.9566742968616</v>
       </c>
       <c r="C19" t="n">
-        <v>727.6190335717783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>577.5023941594426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>429.5893005770495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>429.5893005770495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.203681329925</v>
+        <v>310.6051391271013</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,46 +5735,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1142.020036873616</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1142.020036873616</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>218.4033802145346</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>367.4730644165944</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>614.2381923230585</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>921.55832560302</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>199.530035688927</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>199.530035688927</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>199.530035688927</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>199.530035688927</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383446</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383446</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>385.5899330013839</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>157.6003821033666</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6236,19 +6236,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>709.4512536188994</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819388</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819388</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819388</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163772</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>604.5641438163772</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="D31" t="n">
-        <v>510.2083696854122</v>
+        <v>232.0013381767179</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>232.0013381767179</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652461</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652461</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010319</v>
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,19 +7090,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,64 +7160,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7309,34 +7309,34 @@
         <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305141</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498445</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>80.50021372615267</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949951</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,16 +10671,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>20.63789864135487</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949893</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>61.34209567542488</v>
+        <v>85.66716743252492</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>31.44452159752852</v>
+        <v>121.3553803406498</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>135.8246340904178</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>96.7781552695897</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>176.1054520983414</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>44.13123323657651</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.8051956154449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>173.923941726698</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338616</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.80400437902598</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>50.49195888408548</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
@@ -26320,40 +26320,40 @@
         <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.8854161142</v>
+        <v>549209.8854161144</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583906</v>
+        <v>554203.1946583904</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583908</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583907</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086686</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159208</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007441</v>
+        <v>7916.731656007531</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007453</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600746</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354834</v>
+        <v>-266540.8113354833</v>
       </c>
       <c r="C6" t="n">
         <v>323427.0678790609</v>
@@ -26528,40 +26528,40 @@
         <v>323427.0678790605</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571359</v>
+        <v>-97272.32256168546</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411829</v>
+        <v>427887.7139152105</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411827</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411827</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.1730411829</v>
+        <v>427887.7139152108</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.9538485901</v>
+        <v>251464.4947226176</v>
       </c>
       <c r="K6" t="n">
-        <v>382337.7174128419</v>
+        <v>382319.2236749075</v>
       </c>
       <c r="L6" t="n">
-        <v>415809.6631401704</v>
+        <v>415809.663140171</v>
       </c>
       <c r="M6" t="n">
-        <v>291351.5547072</v>
+        <v>291351.5547071998</v>
       </c>
       <c r="N6" t="n">
         <v>426152.5699410375</v>
       </c>
       <c r="O6" t="n">
-        <v>426152.5699410375</v>
+        <v>426152.5699410374</v>
       </c>
       <c r="P6" t="n">
-        <v>381989.9646381918</v>
+        <v>381989.964638192</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>175.5546477434695</v>
       </c>
       <c r="C2" t="n">
-        <v>127.8176903426372</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>151.5755224052624</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>330.296216500682</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>280.5455559685357</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278593</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>94.48232050666019</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>209.3559097521175</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>78.93179823140994</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.705712004706465e-13</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.334050603231563e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541597</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058689</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>122.4103926810593</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>397.5324193126801</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045736</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>331.0622756918211</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440558</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
